--- a/To do list.xlsx
+++ b/To do list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Schematics</t>
   </si>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,25 +491,40 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/To do list.xlsx
+++ b/To do list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Schematics</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Pin Mapping table and schematic</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +534,14 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To do list.xlsx
+++ b/To do list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Schematics</t>
   </si>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +542,9 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
